--- a/TEST REPORT.xlsx
+++ b/TEST REPORT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>S.NO</t>
   </si>
@@ -232,9 +232,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +613,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -625,39 +625,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="26.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -676,20 +676,20 @@
     <row r="5" spans="1:5" ht="18.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -697,7 +697,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -705,7 +705,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -729,7 +729,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -737,7 +737,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -770,10 +770,10 @@
     <row r="16" spans="1:5" ht="18.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -789,7 +789,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -805,61 +805,70 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>

--- a/TEST REPORT.xlsx
+++ b/TEST REPORT.xlsx
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>

--- a/TEST REPORT.xlsx
+++ b/TEST REPORT.xlsx
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
